--- a/console/Elastic-Compute/Virtual-Machine/components/tag/tagDownTree.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/tag/tagDownTree.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Input key/value for searching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No Data Now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +123,14 @@
       </rPr>
       <t>值搜索</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter key/value for searching</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -523,32 +523,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
